--- a/영화관 - 화면목록표.xlsx
+++ b/영화관 - 화면목록표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sist\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30306B6-BE6C-4F1C-B024-17F04C90AB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27641E0F-BDDE-4F90-8099-150B5544D00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,21 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="196">
   <si>
     <t>화면 설계</t>
-  </si>
-  <si>
-    <t>작성일</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>오한나, 이영주, 이희홍, 최영우, 박진주</t>
-  </si>
-  <si>
-    <t>갱신일</t>
-  </si>
-  <si>
-    <t>갱신자</t>
   </si>
   <si>
     <r>
@@ -55,15 +40,30 @@
     </r>
   </si>
   <si>
+    <t>작성일</t>
+  </si>
+  <si>
+    <t>19.12.28</t>
+  </si>
+  <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>오한나, 이영주, 이희홍, 최영우, 박진주</t>
+  </si>
+  <si>
+    <t>갱신일</t>
+  </si>
+  <si>
+    <t>갱신자</t>
+  </si>
+  <si>
     <t>승인일</t>
   </si>
   <si>
     <t>승인자</t>
   </si>
   <si>
-    <t>19.12.28</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -178,279 +178,283 @@
     <t>GET / PUT / DELETE</t>
   </si>
   <si>
+    <t>ALL_04</t>
+  </si>
+  <si>
+    <t>상영시간표 조회 화면</t>
+  </si>
+  <si>
+    <t>/schedule/list</t>
+  </si>
+  <si>
+    <t>ALL_05_01</t>
+  </si>
+  <si>
+    <t>리뷰 조회 화면</t>
+  </si>
+  <si>
+    <t>/review/list</t>
+  </si>
+  <si>
+    <t>ALL_05_02</t>
+  </si>
+  <si>
+    <t>리뷰글 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/review/get</t>
+  </si>
+  <si>
+    <t>/review/remove</t>
+  </si>
+  <si>
+    <t>/reply/new</t>
+  </si>
+  <si>
+    <t>/reply</t>
+  </si>
+  <si>
+    <t>ALL_06_01</t>
+  </si>
+  <si>
+    <t>기프티콘 조회 화면</t>
+  </si>
+  <si>
+    <t>/gift/list</t>
+  </si>
+  <si>
+    <t>ALL_06_02</t>
+  </si>
+  <si>
+    <t>기프티콘 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/gift/get</t>
+  </si>
+  <si>
+    <t>/gift/remove</t>
+  </si>
+  <si>
+    <t>ALL_07_01</t>
+  </si>
+  <si>
+    <t>공지사항 조회 화면</t>
+  </si>
+  <si>
+    <t>/notice/list</t>
+  </si>
+  <si>
+    <t>ALL_07_02</t>
+  </si>
+  <si>
+    <t>공지사항 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/notice/get</t>
+  </si>
+  <si>
+    <t>/notice/remove</t>
+  </si>
+  <si>
+    <t>ALL_08_01</t>
+  </si>
+  <si>
+    <t>습득물 조회 화면</t>
+  </si>
+  <si>
+    <t>/lost/list</t>
+  </si>
+  <si>
+    <t>ALL_08_02</t>
+  </si>
+  <si>
+    <t>습득물 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/lost/get</t>
+  </si>
+  <si>
+    <t>/lost/remove</t>
+  </si>
+  <si>
+    <t>ALL_09_01</t>
+  </si>
+  <si>
+    <t>건의사항 조회 화면</t>
+  </si>
+  <si>
+    <t>/suggest/list</t>
+  </si>
+  <si>
+    <t>ALL_09_02</t>
+  </si>
+  <si>
+    <t>건의사항 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/suggest/get</t>
+  </si>
+  <si>
+    <t>/suggest/remove</t>
+  </si>
+  <si>
+    <t>USR_00</t>
+  </si>
+  <si>
+    <t>ID찾기 화면</t>
+  </si>
+  <si>
+    <t>/member/findId</t>
+  </si>
+  <si>
+    <t>GET/POST</t>
+  </si>
+  <si>
+    <t>USR_01</t>
+  </si>
+  <si>
+    <t>PW찾기 화면</t>
+  </si>
+  <si>
+    <t>/member/findPw</t>
+  </si>
+  <si>
+    <t>USR_02_01_01</t>
+  </si>
+  <si>
+    <t>리뷰 수정 화면</t>
+  </si>
+  <si>
+    <t>/review/modify</t>
+  </si>
+  <si>
+    <t>USR_02_02</t>
+  </si>
+  <si>
+    <t>내 정보 조회</t>
+  </si>
+  <si>
+    <t>/mypage/get</t>
+  </si>
+  <si>
+    <t>USR_02_02_01</t>
+  </si>
+  <si>
+    <t>내 정보 수정 화면</t>
+  </si>
+  <si>
+    <t>/mypage/modify</t>
+  </si>
+  <si>
+    <t>USR_02_04</t>
+  </si>
+  <si>
+    <t>내 기프티콘 조회 화면</t>
+  </si>
+  <si>
+    <t>/mypage/gift/list</t>
+  </si>
+  <si>
+    <t>USR_02_04_01</t>
+  </si>
+  <si>
+    <t>내 기프티콘 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/mypage/gift/get</t>
+  </si>
+  <si>
+    <t>/mypage/gift/extend
+/mypage/gift/refund</t>
+  </si>
+  <si>
+    <t>USR_02_05</t>
+  </si>
+  <si>
+    <t>내 한줄평 조회 화면</t>
+  </si>
+  <si>
+    <t>/mypage/comment/list</t>
+  </si>
+  <si>
+    <t>USR_02_06</t>
+  </si>
+  <si>
+    <t>내 예매 내역 조회 화면</t>
+  </si>
+  <si>
+    <t>/mypage/reserve/list</t>
+  </si>
+  <si>
+    <t>USR_02_06_01</t>
+  </si>
+  <si>
+    <t>리뷰 작성 화면</t>
+  </si>
+  <si>
+    <t>/review/register</t>
+  </si>
+  <si>
+    <t>USR_03</t>
+  </si>
+  <si>
+    <t>예매 (영화, 시간, 날짜 선택) 화면</t>
+  </si>
+  <si>
+    <t>/movie/reserve</t>
+  </si>
+  <si>
+    <t>USR_03_01</t>
+  </si>
+  <si>
+    <t>좌석/인원 수 선택 화면</t>
+  </si>
+  <si>
+    <t>/movie/seat</t>
+  </si>
+  <si>
     <t>예매 완료 화면</t>
   </si>
   <si>
-    <t>ALL_04</t>
-  </si>
-  <si>
-    <t>상영시간표 조회 화면</t>
-  </si>
-  <si>
-    <t>/schedule/list</t>
-  </si>
-  <si>
-    <t>ALL_05_01</t>
-  </si>
-  <si>
-    <t>리뷰 조회 화면</t>
-  </si>
-  <si>
-    <t>/review/list</t>
-  </si>
-  <si>
-    <t>ALL_05_02</t>
-  </si>
-  <si>
-    <t>리뷰글 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/review/get</t>
-  </si>
-  <si>
-    <t>/review/remove</t>
-  </si>
-  <si>
-    <t>/reply/new</t>
-  </si>
-  <si>
-    <t>/reply</t>
-  </si>
-  <si>
-    <t>ALL_06_01</t>
-  </si>
-  <si>
-    <t>기프티콘 조회 화면</t>
-  </si>
-  <si>
-    <t>/gift/list</t>
-  </si>
-  <si>
-    <t>ALL_06_02</t>
-  </si>
-  <si>
-    <t>기프티콘 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/gift/get</t>
-  </si>
-  <si>
-    <t>/gift/remove</t>
-  </si>
-  <si>
-    <t>ALL_07_01</t>
-  </si>
-  <si>
-    <t>공지사항 조회 화면</t>
-  </si>
-  <si>
-    <t>/notice/list</t>
-  </si>
-  <si>
-    <t>ALL_07_02</t>
-  </si>
-  <si>
-    <t>공지사항 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/notice/get</t>
-  </si>
-  <si>
-    <t>/notice/remove</t>
-  </si>
-  <si>
-    <t>ALL_08_01</t>
-  </si>
-  <si>
-    <t>습득물 조회 화면</t>
-  </si>
-  <si>
-    <t>/lost/list</t>
-  </si>
-  <si>
-    <t>ALL_08_02</t>
+    <t>USR_04</t>
+  </si>
+  <si>
+    <t>신고 화면</t>
+  </si>
+  <si>
+    <t>/report/register</t>
+  </si>
+  <si>
+    <t>USR_05_01</t>
+  </si>
+  <si>
+    <t>건의사항 등록 화면</t>
+  </si>
+  <si>
+    <t>/suggest/register</t>
+  </si>
+  <si>
+    <t>USR_05_02</t>
+  </si>
+  <si>
+    <t>건의사항 수정 화면</t>
+  </si>
+  <si>
+    <t>/suggest/modify</t>
+  </si>
+  <si>
+    <t>USR_06_01</t>
+  </si>
+  <si>
+    <t>/movie/pay</t>
+  </si>
+  <si>
+    <t>USR_06_02</t>
   </si>
   <si>
     <t>결제 완료 화면</t>
   </si>
   <si>
-    <t>습득물 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/lost/get</t>
-  </si>
-  <si>
-    <t>/lost/remove</t>
-  </si>
-  <si>
-    <t>ALL_09_01</t>
-  </si>
-  <si>
-    <t>건의사항 조회 화면</t>
-  </si>
-  <si>
-    <t>/suggest/list</t>
-  </si>
-  <si>
-    <t>ALL_09_02</t>
-  </si>
-  <si>
-    <t>건의사항 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/suggest/get</t>
-  </si>
-  <si>
-    <t>/suggest/remove</t>
-  </si>
-  <si>
-    <t>USR_00</t>
-  </si>
-  <si>
-    <t>ID찾기 화면</t>
-  </si>
-  <si>
-    <t>/member/findId</t>
-  </si>
-  <si>
-    <t>GET/POST</t>
-  </si>
-  <si>
-    <t>USR_01</t>
-  </si>
-  <si>
-    <t>PW찾기 화면</t>
-  </si>
-  <si>
-    <t>/member/findPw</t>
-  </si>
-  <si>
-    <t>USR_02_01_01</t>
-  </si>
-  <si>
-    <t>리뷰 수정 화면</t>
-  </si>
-  <si>
-    <t>/review/modify</t>
-  </si>
-  <si>
-    <t>USR_02_02</t>
-  </si>
-  <si>
-    <t>내 한줄평 조회 화면</t>
-  </si>
-  <si>
-    <t>/mypage/comment/list</t>
-  </si>
-  <si>
-    <t>USR_02_04</t>
-  </si>
-  <si>
-    <t>내 기프티콘 조회 화면</t>
-  </si>
-  <si>
-    <t>/mypage/gift/list</t>
-  </si>
-  <si>
-    <t>USR_02_04_01</t>
-  </si>
-  <si>
-    <t>내 기프티콘 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/mypage/gift/get</t>
-  </si>
-  <si>
-    <t>USR_02_05</t>
-  </si>
-  <si>
-    <t>내 정보 조회 화면</t>
-  </si>
-  <si>
-    <t>/mypage/get</t>
-  </si>
-  <si>
-    <t>USR_02_05_01</t>
-  </si>
-  <si>
-    <t>내 정보 수정 화면</t>
-  </si>
-  <si>
-    <t>/mypage/modify</t>
-  </si>
-  <si>
-    <t>USR_02_06</t>
-  </si>
-  <si>
-    <t>내 예매 내역 조회 화면</t>
-  </si>
-  <si>
-    <t>/mypage/reserve/list</t>
-  </si>
-  <si>
-    <t>USR_02_06_01</t>
-  </si>
-  <si>
-    <t>리뷰 작성 화면</t>
-  </si>
-  <si>
-    <t>/review/register</t>
-  </si>
-  <si>
-    <t>USR_03</t>
-  </si>
-  <si>
-    <t>예매 (영화, 시간, 날짜 선택) 화면</t>
-  </si>
-  <si>
-    <t>/movie/reserve</t>
-  </si>
-  <si>
-    <t>USR_03_01</t>
-  </si>
-  <si>
-    <t>좌석/인원 수 선택 화면</t>
-  </si>
-  <si>
-    <t>/movie/seat</t>
-  </si>
-  <si>
-    <t>USR_04</t>
-  </si>
-  <si>
-    <t>신고 화면</t>
-  </si>
-  <si>
-    <t>/report/register</t>
-  </si>
-  <si>
-    <t>USR_05_01</t>
-  </si>
-  <si>
-    <t>건의사항 등록 화면</t>
-  </si>
-  <si>
-    <t>/suggest/register</t>
-  </si>
-  <si>
-    <t>USR_05_02</t>
-  </si>
-  <si>
-    <t>건의사항 수정 화면</t>
-  </si>
-  <si>
-    <t>/suggest/modify</t>
-  </si>
-  <si>
-    <t>USR_06_01</t>
-  </si>
-  <si>
-    <t>/movie/pay</t>
-  </si>
-  <si>
-    <t>USR_06_02</t>
-  </si>
-  <si>
     <t>/gift/pay</t>
   </si>
   <si>
@@ -491,158 +495,152 @@
   </si>
   <si>
     <t>리뷰 댓글/한줄평 신고글 상세보기 화면</t>
-  </si>
-  <si>
-    <t>ADM_01_03</t>
-  </si>
-  <si>
-    <t>한줄평 신고 조회 화면</t>
-  </si>
-  <si>
-    <t>/report/comment/list</t>
-  </si>
-  <si>
-    <t>/report/comment/remove</t>
-  </si>
-  <si>
-    <t>ADM_01_04</t>
-  </si>
-  <si>
-    <t>리뷰 신고 조회 화면</t>
-  </si>
-  <si>
-    <t>/report/review/list</t>
-  </si>
-  <si>
-    <t>/report/review/remove</t>
-  </si>
-  <si>
-    <t>ADM_01_04_01</t>
-  </si>
-  <si>
-    <t>리뷰 신고글 상세보기 화면</t>
-  </si>
-  <si>
-    <t>/report/review/get</t>
-  </si>
-  <si>
-    <t>ADM_02_01</t>
-  </si>
-  <si>
-    <t>영화 등록 화면</t>
-  </si>
-  <si>
-    <t>/movie/register</t>
-  </si>
-  <si>
-    <t>ADM_02_02</t>
-  </si>
-  <si>
-    <t>영화 수정 화면</t>
-  </si>
-  <si>
-    <t>/movie/modify</t>
-  </si>
-  <si>
-    <t>ADM_03_01</t>
-  </si>
-  <si>
-    <t>상영시간표 등록 화면</t>
-  </si>
-  <si>
-    <t>/schedule/register</t>
-  </si>
-  <si>
-    <t>ADM_03_02</t>
-  </si>
-  <si>
-    <t>상영시간표 수정 화면</t>
-  </si>
-  <si>
-    <t>/schedule/modify</t>
-  </si>
-  <si>
-    <t>ADM_04_01</t>
-  </si>
-  <si>
-    <t>기프티콘 등록 화면</t>
-  </si>
-  <si>
-    <t>/gift/register</t>
-  </si>
-  <si>
-    <t>ADM_04_02</t>
-  </si>
-  <si>
-    <t>기프티콘 수정 화면</t>
-  </si>
-  <si>
-    <t>/gift/modify</t>
-  </si>
-  <si>
-    <t>ADM_05_01</t>
-  </si>
-  <si>
-    <t>공지사항 등록 화면</t>
-  </si>
-  <si>
-    <t>/notice/register</t>
-  </si>
-  <si>
-    <t>ADM_05_02</t>
-  </si>
-  <si>
-    <t>공지사항 수정 화면</t>
-  </si>
-  <si>
-    <t>/notice/modify</t>
-  </si>
-  <si>
-    <t>ADM_06_01</t>
-  </si>
-  <si>
-    <t>습득물 등록 화면</t>
-  </si>
-  <si>
-    <t>/lost/register</t>
-  </si>
-  <si>
-    <t>ADM_06_02</t>
-  </si>
-  <si>
-    <t>습득물 수정 화면</t>
-  </si>
-  <si>
-    <t>/lost/modify</t>
   </si>
   <si>
     <t>/report/comment/get
 /report/reply/get</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>/mypage/gift/extend
-/mypage/gift/refund</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADM_01_03</t>
+  </si>
+  <si>
+    <t>한줄평 신고 조회 화면</t>
+  </si>
+  <si>
+    <t>/report/comment/list</t>
+  </si>
+  <si>
+    <t>/report/comment/remove</t>
+  </si>
+  <si>
+    <t>ADM_01_04</t>
+  </si>
+  <si>
+    <t>리뷰 신고 조회 화면</t>
+  </si>
+  <si>
+    <t>/report/review/list</t>
+  </si>
+  <si>
+    <t>/report/review/remove</t>
+  </si>
+  <si>
+    <t>ADM_01_04_01</t>
+  </si>
+  <si>
+    <t>리뷰 신고글 상세보기 화면</t>
+  </si>
+  <si>
+    <t>/report/review/get</t>
+  </si>
+  <si>
+    <t>ADM_02_01</t>
+  </si>
+  <si>
+    <t>영화 등록 화면</t>
+  </si>
+  <si>
+    <t>/movie/register</t>
+  </si>
+  <si>
+    <t>ADM_02_02</t>
+  </si>
+  <si>
+    <t>영화 수정 화면</t>
+  </si>
+  <si>
+    <t>/movie/modify</t>
+  </si>
+  <si>
+    <t>ADM_03_01</t>
+  </si>
+  <si>
+    <t>상영시간표 등록 화면</t>
+  </si>
+  <si>
+    <t>/schedule/register</t>
+  </si>
+  <si>
+    <t>ADM_03_02</t>
+  </si>
+  <si>
+    <t>상영시간표 수정 화면</t>
+  </si>
+  <si>
+    <t>/schedule/modify</t>
+  </si>
+  <si>
+    <t>ADM_04_01</t>
+  </si>
+  <si>
+    <t>기프티콘 등록 화면</t>
+  </si>
+  <si>
+    <t>/gift/register</t>
+  </si>
+  <si>
+    <t>ADM_04_02</t>
+  </si>
+  <si>
+    <t>기프티콘 수정 화면</t>
+  </si>
+  <si>
+    <t>/gift/modify</t>
+  </si>
+  <si>
+    <t>ADM_05_01</t>
+  </si>
+  <si>
+    <t>공지사항 등록 화면</t>
+  </si>
+  <si>
+    <t>/notice/register</t>
+  </si>
+  <si>
+    <t>ADM_05_02</t>
+  </si>
+  <si>
+    <t>공지사항 수정 화면</t>
+  </si>
+  <si>
+    <t>/notice/modify</t>
+  </si>
+  <si>
+    <t>ADM_06_01</t>
+  </si>
+  <si>
+    <t>습득물 등록 화면</t>
+  </si>
+  <si>
+    <t>/lost/register</t>
+  </si>
+  <si>
+    <t>ADM_06_02</t>
+  </si>
+  <si>
+    <t>습득물 수정 화면</t>
+  </si>
+  <si>
+    <t>/lost/modify</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -689,6 +687,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -702,16 +714,21 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -729,14 +746,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -761,15 +778,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -800,9 +808,7 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -816,15 +822,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -855,15 +852,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -885,23 +873,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -962,41 +959,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1026,10 +988,65 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1050,47 +1067,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1099,7 +1116,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1108,58 +1125,58 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,89 +1185,131 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1469,11 +1528,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56:L56"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1482,88 +1542,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+        <v>1</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="39"/>
       <c r="I3" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
+        <v>4</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="66"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
-      <c r="B4" s="58"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="39"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="39"/>
       <c r="I4" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="63"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="62"/>
+        <v>7</v>
+      </c>
+      <c r="L4" s="68"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="59"/>
+      <c r="B5" s="64"/>
       <c r="C5" s="41"/>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
@@ -1571,15 +1631,15 @@
       <c r="G5" s="40"/>
       <c r="H5" s="41"/>
       <c r="I5" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="63"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="62"/>
+        <v>9</v>
+      </c>
+      <c r="L5" s="68"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="67"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
@@ -1592,12 +1652,12 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="16"/>
@@ -1618,7 +1678,7 @@
       <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="56" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="28"/>
@@ -1626,74 +1686,74 @@
       <c r="F8" s="28"/>
       <c r="G8" s="29"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="45" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="45" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="34"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="20"/>
       <c r="I10" s="23"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="45" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="45"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="32"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
@@ -1704,12 +1764,12 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="7"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
@@ -1732,32 +1792,32 @@
       <c r="B14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="56" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="56" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="56" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="29"/>
-      <c r="K14" s="52" t="s">
+      <c r="K14" s="56" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="29"/>
-      <c r="M14" s="52" t="s">
+      <c r="M14" s="56" t="s">
         <v>25</v>
       </c>
       <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
@@ -1765,44 +1825,44 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="43" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="55" t="s">
         <v>28</v>
       </c>
       <c r="J15" s="32"/>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L15" s="32"/>
-      <c r="M15" s="50"/>
+      <c r="M15" s="54"/>
       <c r="N15" s="32"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="30"/>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="44" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="45" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="55" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="32"/>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="54" t="s">
         <v>33</v>
       </c>
       <c r="L16" s="32"/>
-      <c r="M16" s="50" t="s">
+      <c r="M16" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N16" s="32"/>
@@ -1810,25 +1870,25 @@
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="30"/>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="57" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="58" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="55" t="s">
         <v>37</v>
       </c>
       <c r="J17" s="32"/>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="54" t="s">
         <v>33</v>
       </c>
       <c r="L17" s="32"/>
-      <c r="M17" s="50" t="s">
+      <c r="M17" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N17" s="32"/>
@@ -1836,519 +1896,519 @@
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="30"/>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="44" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="45" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="55" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="32"/>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L18" s="32"/>
-      <c r="M18" s="50"/>
+      <c r="M18" s="54"/>
       <c r="N18" s="32"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="30"/>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="44" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="51" t="s">
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="55" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="32"/>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L19" s="32"/>
-      <c r="M19" s="50"/>
+      <c r="M19" s="54"/>
       <c r="N19" s="32"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="30"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="51" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="55" t="s">
         <v>44</v>
       </c>
       <c r="J20" s="32"/>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L20" s="32"/>
-      <c r="M20" s="50"/>
+      <c r="M20" s="54"/>
       <c r="N20" s="32"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="30"/>
-      <c r="C21" s="45"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="31"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="45"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="31"/>
       <c r="H21" s="32"/>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="60" t="s">
         <v>46</v>
       </c>
       <c r="J21" s="32"/>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="55" t="s">
         <v>47</v>
       </c>
       <c r="L21" s="32"/>
-      <c r="M21" s="51"/>
+      <c r="M21" s="55"/>
       <c r="N21" s="32"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="30"/>
-      <c r="C22" s="53" t="s">
-        <v>49</v>
+      <c r="C22" s="57" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="53" t="s">
-        <v>50</v>
+      <c r="F22" s="58" t="s">
+        <v>49</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="29"/>
-      <c r="I22" s="51" t="s">
-        <v>51</v>
+      <c r="I22" s="55" t="s">
+        <v>50</v>
       </c>
       <c r="J22" s="32"/>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L22" s="32"/>
-      <c r="M22" s="50"/>
+      <c r="M22" s="54"/>
       <c r="N22" s="32"/>
     </row>
     <row r="23" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
       <c r="B23" s="30"/>
-      <c r="C23" s="43" t="s">
-        <v>52</v>
+      <c r="C23" s="44" t="s">
+        <v>51</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="43" t="s">
-        <v>53</v>
+      <c r="F23" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="51" t="s">
-        <v>54</v>
+      <c r="I23" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="J23" s="32"/>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L23" s="32"/>
-      <c r="M23" s="50"/>
+      <c r="M23" s="54"/>
       <c r="N23" s="32"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
       <c r="B24" s="30"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="44" t="s">
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="51" t="s">
-        <v>57</v>
-      </c>
       <c r="J24" s="32"/>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L24" s="32"/>
-      <c r="M24" s="50"/>
+      <c r="M24" s="54"/>
       <c r="N24" s="32"/>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
       <c r="B25" s="30"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="51" t="s">
-        <v>58</v>
+      <c r="C25" s="59"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="55" t="s">
+        <v>57</v>
       </c>
       <c r="J25" s="32"/>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L25" s="32"/>
-      <c r="M25" s="50"/>
+      <c r="M25" s="54"/>
       <c r="N25" s="32"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
       <c r="B26" s="30"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="51" t="s">
-        <v>59</v>
+      <c r="C26" s="59"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="J26" s="32"/>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="32"/>
-      <c r="M26" s="50"/>
+      <c r="M26" s="54"/>
       <c r="N26" s="32"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="45"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="45"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="31"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="51" t="s">
-        <v>60</v>
+      <c r="I27" s="55" t="s">
+        <v>59</v>
       </c>
       <c r="J27" s="32"/>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="54" t="s">
         <v>47</v>
       </c>
       <c r="L27" s="32"/>
-      <c r="M27" s="50"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="32"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
       <c r="B28" s="30"/>
-      <c r="C28" s="53" t="s">
-        <v>61</v>
+      <c r="C28" s="57" t="s">
+        <v>60</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="53" t="s">
-        <v>62</v>
+      <c r="F28" s="58" t="s">
+        <v>61</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="29"/>
-      <c r="I28" s="51" t="s">
-        <v>63</v>
+      <c r="I28" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="J28" s="32"/>
-      <c r="K28" s="50" t="s">
+      <c r="K28" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L28" s="32"/>
-      <c r="M28" s="50"/>
+      <c r="M28" s="54"/>
       <c r="N28" s="32"/>
     </row>
     <row r="29" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
       <c r="B29" s="30"/>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="64" t="s">
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="51" t="s">
-        <v>66</v>
-      </c>
       <c r="J29" s="32"/>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L29" s="32"/>
-      <c r="M29" s="50"/>
+      <c r="M29" s="54"/>
       <c r="N29" s="32"/>
     </row>
     <row r="30" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
       <c r="B30" s="30"/>
-      <c r="C30" s="45"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="31"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="45"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="31"/>
       <c r="H30" s="32"/>
-      <c r="I30" s="51" t="s">
-        <v>67</v>
+      <c r="I30" s="55" t="s">
+        <v>66</v>
       </c>
       <c r="J30" s="32"/>
-      <c r="K30" s="50" t="s">
+      <c r="K30" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L30" s="32"/>
-      <c r="M30" s="50"/>
+      <c r="M30" s="54"/>
       <c r="N30" s="32"/>
     </row>
     <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
       <c r="B31" s="30"/>
-      <c r="C31" s="43" t="s">
-        <v>68</v>
+      <c r="C31" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
-      <c r="F31" s="43" t="s">
-        <v>69</v>
+      <c r="F31" s="45" t="s">
+        <v>68</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="51" t="s">
-        <v>70</v>
+      <c r="I31" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="J31" s="32"/>
-      <c r="K31" s="50" t="s">
+      <c r="K31" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L31" s="32"/>
-      <c r="M31" s="50"/>
+      <c r="M31" s="54"/>
       <c r="N31" s="32"/>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="30"/>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="44" t="s">
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="51" t="s">
-        <v>73</v>
-      </c>
       <c r="J32" s="32"/>
-      <c r="K32" s="50" t="s">
+      <c r="K32" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L32" s="32"/>
-      <c r="M32" s="50"/>
+      <c r="M32" s="54"/>
       <c r="N32" s="32"/>
     </row>
     <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="18"/>
       <c r="B33" s="30"/>
-      <c r="C33" s="45"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="31"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="45"/>
+      <c r="F33" s="46"/>
       <c r="G33" s="31"/>
       <c r="H33" s="32"/>
-      <c r="I33" s="51" t="s">
-        <v>74</v>
+      <c r="I33" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="J33" s="32"/>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L33" s="32"/>
-      <c r="M33" s="50"/>
+      <c r="M33" s="54"/>
       <c r="N33" s="32"/>
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="30"/>
-      <c r="C34" s="53" t="s">
-        <v>75</v>
+      <c r="C34" s="57" t="s">
+        <v>74</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
-      <c r="F34" s="53" t="s">
-        <v>76</v>
+      <c r="F34" s="58" t="s">
+        <v>75</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="51" t="s">
-        <v>77</v>
+      <c r="I34" s="55" t="s">
+        <v>76</v>
       </c>
       <c r="J34" s="32"/>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L34" s="32"/>
-      <c r="M34" s="50"/>
+      <c r="M34" s="54"/>
       <c r="N34" s="32"/>
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
       <c r="B35" s="30"/>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="51" t="s">
-        <v>81</v>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="55" t="s">
+        <v>79</v>
       </c>
       <c r="J35" s="32"/>
-      <c r="K35" s="50" t="s">
+      <c r="K35" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L35" s="32"/>
-      <c r="M35" s="50"/>
+      <c r="M35" s="54"/>
       <c r="N35" s="32"/>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
       <c r="B36" s="30"/>
-      <c r="C36" s="45"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="31"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="45"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="31"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="51" t="s">
-        <v>82</v>
+      <c r="I36" s="55" t="s">
+        <v>80</v>
       </c>
       <c r="J36" s="32"/>
-      <c r="K36" s="50" t="s">
+      <c r="K36" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L36" s="32"/>
-      <c r="M36" s="50"/>
+      <c r="M36" s="54"/>
       <c r="N36" s="32"/>
     </row>
     <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
       <c r="B37" s="30"/>
-      <c r="C37" s="43" t="s">
-        <v>83</v>
+      <c r="C37" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="29"/>
-      <c r="F37" s="43" t="s">
-        <v>84</v>
+      <c r="F37" s="45" t="s">
+        <v>82</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="51" t="s">
-        <v>85</v>
+      <c r="I37" s="55" t="s">
+        <v>83</v>
       </c>
       <c r="J37" s="32"/>
-      <c r="K37" s="50" t="s">
+      <c r="K37" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L37" s="32"/>
-      <c r="M37" s="50"/>
+      <c r="M37" s="54"/>
       <c r="N37" s="32"/>
     </row>
     <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="18"/>
       <c r="B38" s="30"/>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="51" t="s">
-        <v>88</v>
-      </c>
       <c r="J38" s="32"/>
-      <c r="K38" s="50" t="s">
+      <c r="K38" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L38" s="32"/>
-      <c r="M38" s="50"/>
+      <c r="M38" s="54"/>
       <c r="N38" s="32"/>
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="37"/>
-      <c r="C39" s="45"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="31"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="45"/>
+      <c r="F39" s="46"/>
       <c r="G39" s="31"/>
       <c r="H39" s="32"/>
-      <c r="I39" s="51" t="s">
-        <v>89</v>
+      <c r="I39" s="55" t="s">
+        <v>87</v>
       </c>
       <c r="J39" s="32"/>
-      <c r="K39" s="50" t="s">
+      <c r="K39" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L39" s="32"/>
-      <c r="M39" s="50"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="32"/>
     </row>
     <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="48" t="s">
-        <v>90</v>
+      <c r="C40" s="51" t="s">
+        <v>88</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="29"/>
-      <c r="F40" s="48" t="s">
-        <v>91</v>
+      <c r="F40" s="52" t="s">
+        <v>89</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="29"/>
-      <c r="I40" s="51" t="s">
-        <v>92</v>
+      <c r="I40" s="55" t="s">
+        <v>90</v>
       </c>
       <c r="J40" s="32"/>
-      <c r="K40" s="50" t="s">
-        <v>93</v>
+      <c r="K40" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="L40" s="32"/>
-      <c r="M40" s="50" t="s">
+      <c r="M40" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N40" s="32"/>
@@ -2357,24 +2417,24 @@
       <c r="A41" s="18"/>
       <c r="B41" s="30"/>
       <c r="C41" s="49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="29"/>
-      <c r="F41" s="49" t="s">
-        <v>95</v>
+      <c r="F41" s="53" t="s">
+        <v>93</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="29"/>
-      <c r="I41" s="51" t="s">
-        <v>96</v>
+      <c r="I41" s="55" t="s">
+        <v>94</v>
       </c>
       <c r="J41" s="32"/>
-      <c r="K41" s="50" t="s">
-        <v>93</v>
+      <c r="K41" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="L41" s="32"/>
-      <c r="M41" s="50" t="s">
+      <c r="M41" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N41" s="32"/>
@@ -2383,24 +2443,24 @@
       <c r="A42" s="18"/>
       <c r="B42" s="30"/>
       <c r="C42" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D42" s="28"/>
       <c r="E42" s="29"/>
-      <c r="F42" s="42" t="s">
-        <v>98</v>
+      <c r="F42" s="43" t="s">
+        <v>96</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="29"/>
-      <c r="I42" s="65" t="s">
-        <v>99</v>
+      <c r="I42" s="71" t="s">
+        <v>97</v>
       </c>
       <c r="J42" s="32"/>
-      <c r="K42" s="50" t="s">
-        <v>93</v>
+      <c r="K42" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="L42" s="32"/>
-      <c r="M42" s="50" t="s">
+      <c r="M42" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N42" s="32"/>
@@ -2408,191 +2468,191 @@
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="30"/>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="73"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="73"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="51" t="s">
-        <v>102</v>
-      </c>
       <c r="J43" s="32"/>
-      <c r="K43" s="50" t="s">
+      <c r="K43" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L43" s="32"/>
-      <c r="M43" s="50"/>
+      <c r="M43" s="54"/>
       <c r="N43" s="32"/>
     </row>
     <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44" s="30"/>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="73"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="51" t="s">
-        <v>105</v>
-      </c>
       <c r="J44" s="32"/>
-      <c r="K44" s="50" t="s">
-        <v>29</v>
+      <c r="K44" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="L44" s="32"/>
-      <c r="M44" s="50"/>
+      <c r="M44" s="54" t="s">
+        <v>34</v>
+      </c>
       <c r="N44" s="32"/>
     </row>
     <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="30"/>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" s="73"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="51" t="s">
-        <v>108</v>
-      </c>
       <c r="J45" s="32"/>
-      <c r="K45" s="50" t="s">
+      <c r="K45" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L45" s="32"/>
-      <c r="M45" s="50"/>
+      <c r="M45" s="54"/>
       <c r="N45" s="32"/>
     </row>
     <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="30"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="66" t="s">
-        <v>195</v>
+      <c r="C46" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="76"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="76"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="55" t="s">
+        <v>109</v>
       </c>
       <c r="J46" s="32"/>
-      <c r="K46" s="51" t="s">
-        <v>45</v>
+      <c r="K46" s="54" t="s">
+        <v>29</v>
       </c>
       <c r="L46" s="32"/>
-      <c r="M46" s="51"/>
+      <c r="M46" s="54"/>
       <c r="N46" s="32"/>
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
       <c r="B47" s="30"/>
-      <c r="C47" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="42" t="s">
+      <c r="C47" s="78"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="G47" s="28"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="51" t="s">
-        <v>111</v>
-      </c>
       <c r="J47" s="32"/>
-      <c r="K47" s="50" t="s">
-        <v>29</v>
+      <c r="K47" s="55" t="s">
+        <v>45</v>
       </c>
       <c r="L47" s="32"/>
-      <c r="M47" s="50"/>
+      <c r="M47" s="55"/>
       <c r="N47" s="32"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
       <c r="B48" s="30"/>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="42" t="s">
+      <c r="G48" s="73"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="G48" s="28"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="51" t="s">
-        <v>114</v>
-      </c>
       <c r="J48" s="32"/>
-      <c r="K48" s="50" t="s">
-        <v>93</v>
+      <c r="K48" s="54" t="s">
+        <v>29</v>
       </c>
       <c r="L48" s="32"/>
-      <c r="M48" s="50" t="s">
-        <v>34</v>
-      </c>
+      <c r="M48" s="54"/>
       <c r="N48" s="32"/>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
       <c r="B49" s="30"/>
       <c r="C49" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
-      <c r="F49" s="42" t="s">
-        <v>116</v>
+      <c r="F49" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="29"/>
-      <c r="I49" s="51" t="s">
-        <v>117</v>
+      <c r="I49" s="55" t="s">
+        <v>116</v>
       </c>
       <c r="J49" s="32"/>
-      <c r="K49" s="50" t="s">
+      <c r="K49" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L49" s="32"/>
-      <c r="M49" s="50"/>
+      <c r="M49" s="54"/>
       <c r="N49" s="32"/>
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
       <c r="B50" s="30"/>
       <c r="C50" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="29"/>
-      <c r="F50" s="42" t="s">
-        <v>119</v>
+      <c r="F50" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="29"/>
-      <c r="I50" s="51" t="s">
-        <v>120</v>
+      <c r="I50" s="55" t="s">
+        <v>119</v>
       </c>
       <c r="J50" s="32"/>
-      <c r="K50" s="50" t="s">
-        <v>93</v>
+      <c r="K50" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="L50" s="32"/>
-      <c r="M50" s="50" t="s">
+      <c r="M50" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N50" s="32"/>
@@ -2600,49 +2660,49 @@
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="18"/>
       <c r="B51" s="30"/>
-      <c r="C51" s="43" t="s">
-        <v>121</v>
+      <c r="C51" s="44" t="s">
+        <v>120</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="29"/>
-      <c r="F51" s="43" t="s">
-        <v>122</v>
+      <c r="F51" s="45" t="s">
+        <v>121</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" s="29"/>
-      <c r="I51" s="51" t="s">
-        <v>123</v>
+      <c r="I51" s="55" t="s">
+        <v>122</v>
       </c>
       <c r="J51" s="32"/>
-      <c r="K51" s="50" t="s">
+      <c r="K51" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L51" s="32"/>
-      <c r="M51" s="50"/>
+      <c r="M51" s="54"/>
       <c r="N51" s="32"/>
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="30"/>
-      <c r="C52" s="43" t="s">
-        <v>124</v>
+      <c r="C52" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="29"/>
-      <c r="F52" s="43" t="s">
-        <v>125</v>
+      <c r="F52" s="45" t="s">
+        <v>124</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="29"/>
-      <c r="I52" s="51" t="s">
-        <v>126</v>
+      <c r="I52" s="55" t="s">
+        <v>125</v>
       </c>
       <c r="J52" s="32"/>
-      <c r="K52" s="50" t="s">
+      <c r="K52" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L52" s="32"/>
-      <c r="M52" s="50"/>
+      <c r="M52" s="54"/>
       <c r="N52" s="32"/>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2653,20 +2713,20 @@
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="43" t="s">
         <v>128</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="29"/>
-      <c r="I53" s="51" t="s">
+      <c r="I53" s="55" t="s">
         <v>129</v>
       </c>
       <c r="J53" s="32"/>
-      <c r="K53" s="50" t="s">
-        <v>93</v>
+      <c r="K53" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="L53" s="32"/>
-      <c r="M53" s="50" t="s">
+      <c r="M53" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N53" s="32"/>
@@ -2674,25 +2734,25 @@
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
       <c r="B54" s="30"/>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="44" t="s">
         <v>130</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="45" t="s">
         <v>131</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="29"/>
-      <c r="I54" s="51" t="s">
+      <c r="I54" s="55" t="s">
         <v>132</v>
       </c>
       <c r="J54" s="32"/>
-      <c r="K54" s="50" t="s">
-        <v>93</v>
+      <c r="K54" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="L54" s="32"/>
-      <c r="M54" s="50" t="s">
+      <c r="M54" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N54" s="32"/>
@@ -2700,25 +2760,25 @@
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="18"/>
       <c r="B55" s="30"/>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="44" t="s">
         <v>133</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="29"/>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="45" t="s">
         <v>134</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="29"/>
-      <c r="I55" s="51" t="s">
+      <c r="I55" s="55" t="s">
         <v>135</v>
       </c>
       <c r="J55" s="32"/>
-      <c r="K55" s="50" t="s">
-        <v>93</v>
+      <c r="K55" s="54" t="s">
+        <v>91</v>
       </c>
       <c r="L55" s="32"/>
-      <c r="M55" s="50" t="s">
+      <c r="M55" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N55" s="32"/>
@@ -2731,20 +2791,20 @@
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
-      <c r="F56" s="42" t="s">
-        <v>48</v>
+      <c r="F56" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="29"/>
-      <c r="I56" s="51" t="s">
+      <c r="I56" s="55" t="s">
         <v>137</v>
       </c>
       <c r="J56" s="32"/>
-      <c r="K56" s="50" t="s">
+      <c r="K56" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L56" s="32"/>
-      <c r="M56" s="50"/>
+      <c r="M56" s="54"/>
       <c r="N56" s="32"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -2755,294 +2815,294 @@
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="29"/>
-      <c r="F57" s="42" t="s">
-        <v>79</v>
+      <c r="F57" s="43" t="s">
+        <v>139</v>
       </c>
       <c r="G57" s="28"/>
       <c r="H57" s="29"/>
-      <c r="I57" s="51" t="s">
-        <v>139</v>
+      <c r="I57" s="55" t="s">
+        <v>140</v>
       </c>
       <c r="J57" s="32"/>
-      <c r="K57" s="50" t="s">
+      <c r="K57" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L57" s="32"/>
-      <c r="M57" s="50"/>
+      <c r="M57" s="54"/>
       <c r="N57" s="32"/>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="18"/>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="43" t="s">
-        <v>140</v>
+      <c r="C58" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="29"/>
-      <c r="F58" s="43" t="s">
-        <v>141</v>
+      <c r="F58" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="G58" s="28"/>
       <c r="H58" s="29"/>
-      <c r="I58" s="51" t="s">
-        <v>142</v>
+      <c r="I58" s="55" t="s">
+        <v>143</v>
       </c>
       <c r="J58" s="32"/>
-      <c r="K58" s="50" t="s">
+      <c r="K58" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L58" s="32"/>
-      <c r="M58" s="50"/>
+      <c r="M58" s="54"/>
       <c r="N58" s="32"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
       <c r="B59" s="30"/>
-      <c r="C59" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="44" t="s">
+      <c r="C59" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="51" t="s">
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="48" t="s">
         <v>145</v>
       </c>
+      <c r="G59" s="33"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="55" t="s">
+        <v>146</v>
+      </c>
       <c r="J59" s="32"/>
-      <c r="K59" s="50" t="s">
+      <c r="K59" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L59" s="32"/>
-      <c r="M59" s="50"/>
+      <c r="M59" s="54"/>
       <c r="N59" s="32"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="30"/>
-      <c r="C60" s="45"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="31"/>
       <c r="E60" s="32"/>
-      <c r="F60" s="45"/>
+      <c r="F60" s="46"/>
       <c r="G60" s="31"/>
       <c r="H60" s="32"/>
-      <c r="I60" s="51" t="s">
-        <v>146</v>
+      <c r="I60" s="55" t="s">
+        <v>147</v>
       </c>
       <c r="J60" s="32"/>
-      <c r="K60" s="50" t="s">
+      <c r="K60" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L60" s="32"/>
-      <c r="M60" s="50"/>
+      <c r="M60" s="54"/>
       <c r="N60" s="32"/>
     </row>
     <row r="61" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="30"/>
-      <c r="C61" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="35"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="44" t="s">
+      <c r="C61" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="51" t="s">
+      <c r="D61" s="33"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="48" t="s">
         <v>149</v>
       </c>
+      <c r="G61" s="33"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="55" t="s">
+        <v>150</v>
+      </c>
       <c r="J61" s="32"/>
-      <c r="K61" s="50" t="s">
+      <c r="K61" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L61" s="32"/>
-      <c r="M61" s="50"/>
+      <c r="M61" s="54"/>
       <c r="N61" s="32"/>
     </row>
     <row r="62" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="18"/>
       <c r="B62" s="30"/>
-      <c r="C62" s="45"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="31"/>
       <c r="E62" s="32"/>
-      <c r="F62" s="45"/>
+      <c r="F62" s="46"/>
       <c r="G62" s="31"/>
       <c r="H62" s="32"/>
-      <c r="I62" s="51" t="s">
-        <v>150</v>
+      <c r="I62" s="55" t="s">
+        <v>151</v>
       </c>
       <c r="J62" s="32"/>
-      <c r="K62" s="50" t="s">
+      <c r="K62" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L62" s="32"/>
-      <c r="M62" s="50"/>
+      <c r="M62" s="54"/>
       <c r="N62" s="32"/>
     </row>
     <row r="63" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
       <c r="B63" s="30"/>
-      <c r="C63" s="43" t="s">
-        <v>151</v>
+      <c r="C63" s="44" t="s">
+        <v>152</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="29"/>
-      <c r="F63" s="43" t="s">
-        <v>152</v>
+      <c r="F63" s="45" t="s">
+        <v>153</v>
       </c>
       <c r="G63" s="28"/>
       <c r="H63" s="29"/>
-      <c r="I63" s="66" t="s">
-        <v>194</v>
+      <c r="I63" s="55" t="s">
+        <v>154</v>
       </c>
       <c r="J63" s="32"/>
-      <c r="K63" s="50" t="s">
+      <c r="K63" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L63" s="32"/>
-      <c r="M63" s="50"/>
+      <c r="M63" s="54"/>
       <c r="N63" s="32"/>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="30"/>
-      <c r="C64" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="51" t="s">
+      <c r="C64" s="47" t="s">
         <v>155</v>
       </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="G64" s="33"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="55" t="s">
+        <v>157</v>
+      </c>
       <c r="J64" s="32"/>
-      <c r="K64" s="50" t="s">
+      <c r="K64" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L64" s="32"/>
-      <c r="M64" s="50"/>
+      <c r="M64" s="54"/>
       <c r="N64" s="32"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="30"/>
-      <c r="C65" s="45"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="31"/>
       <c r="E65" s="32"/>
-      <c r="F65" s="45"/>
+      <c r="F65" s="46"/>
       <c r="G65" s="31"/>
       <c r="H65" s="32"/>
-      <c r="I65" s="51" t="s">
-        <v>156</v>
+      <c r="I65" s="55" t="s">
+        <v>158</v>
       </c>
       <c r="J65" s="32"/>
-      <c r="K65" s="50" t="s">
+      <c r="K65" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L65" s="32"/>
-      <c r="M65" s="50"/>
+      <c r="M65" s="54"/>
       <c r="N65" s="32"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="30"/>
-      <c r="C66" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="51" t="s">
+      <c r="C66" s="47" t="s">
         <v>159</v>
       </c>
+      <c r="D66" s="33"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" s="33"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="55" t="s">
+        <v>161</v>
+      </c>
       <c r="J66" s="32"/>
-      <c r="K66" s="50" t="s">
+      <c r="K66" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L66" s="32"/>
-      <c r="M66" s="50"/>
+      <c r="M66" s="54"/>
       <c r="N66" s="32"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
       <c r="B67" s="30"/>
-      <c r="C67" s="45"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="31"/>
       <c r="E67" s="32"/>
-      <c r="F67" s="45"/>
+      <c r="F67" s="46"/>
       <c r="G67" s="31"/>
       <c r="H67" s="32"/>
-      <c r="I67" s="51" t="s">
-        <v>160</v>
+      <c r="I67" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="J67" s="32"/>
-      <c r="K67" s="50" t="s">
+      <c r="K67" s="54" t="s">
         <v>45</v>
       </c>
       <c r="L67" s="32"/>
-      <c r="M67" s="50"/>
+      <c r="M67" s="54"/>
       <c r="N67" s="32"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
       <c r="B68" s="30"/>
-      <c r="C68" s="43" t="s">
-        <v>161</v>
+      <c r="C68" s="44" t="s">
+        <v>163</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="29"/>
-      <c r="F68" s="43" t="s">
-        <v>162</v>
+      <c r="F68" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="G68" s="28"/>
       <c r="H68" s="29"/>
-      <c r="I68" s="51" t="s">
-        <v>163</v>
+      <c r="I68" s="55" t="s">
+        <v>165</v>
       </c>
       <c r="J68" s="32"/>
-      <c r="K68" s="50" t="s">
+      <c r="K68" s="54" t="s">
         <v>29</v>
       </c>
       <c r="L68" s="32"/>
-      <c r="M68" s="50"/>
+      <c r="M68" s="54"/>
       <c r="N68" s="32"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
       <c r="B69" s="30"/>
       <c r="C69" s="42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="29"/>
-      <c r="F69" s="42" t="s">
-        <v>165</v>
+      <c r="F69" s="43" t="s">
+        <v>167</v>
       </c>
       <c r="G69" s="28"/>
       <c r="H69" s="29"/>
-      <c r="I69" s="51" t="s">
-        <v>166</v>
+      <c r="I69" s="55" t="s">
+        <v>168</v>
       </c>
       <c r="J69" s="32"/>
-      <c r="K69" s="51" t="s">
+      <c r="K69" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L69" s="32"/>
-      <c r="M69" s="50" t="s">
+      <c r="M69" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="32"/>
@@ -3051,24 +3111,24 @@
       <c r="A70" s="18"/>
       <c r="B70" s="30"/>
       <c r="C70" s="42" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="29"/>
-      <c r="F70" s="42" t="s">
-        <v>168</v>
+      <c r="F70" s="43" t="s">
+        <v>170</v>
       </c>
       <c r="G70" s="28"/>
       <c r="H70" s="29"/>
-      <c r="I70" s="51" t="s">
-        <v>169</v>
+      <c r="I70" s="55" t="s">
+        <v>171</v>
       </c>
       <c r="J70" s="32"/>
-      <c r="K70" s="51" t="s">
+      <c r="K70" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L70" s="32"/>
-      <c r="M70" s="50" t="s">
+      <c r="M70" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N70" s="32"/>
@@ -3076,25 +3136,25 @@
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
       <c r="B71" s="30"/>
-      <c r="C71" s="43" t="s">
-        <v>170</v>
+      <c r="C71" s="44" t="s">
+        <v>172</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="29"/>
-      <c r="F71" s="43" t="s">
-        <v>171</v>
+      <c r="F71" s="45" t="s">
+        <v>173</v>
       </c>
       <c r="G71" s="28"/>
       <c r="H71" s="29"/>
-      <c r="I71" s="51" t="s">
-        <v>172</v>
+      <c r="I71" s="55" t="s">
+        <v>174</v>
       </c>
       <c r="J71" s="32"/>
-      <c r="K71" s="51" t="s">
+      <c r="K71" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L71" s="32"/>
-      <c r="M71" s="50" t="s">
+      <c r="M71" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="32"/>
@@ -3102,25 +3162,25 @@
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="30"/>
-      <c r="C72" s="43" t="s">
-        <v>173</v>
+      <c r="C72" s="44" t="s">
+        <v>175</v>
       </c>
       <c r="D72" s="28"/>
       <c r="E72" s="29"/>
-      <c r="F72" s="43" t="s">
-        <v>174</v>
+      <c r="F72" s="45" t="s">
+        <v>176</v>
       </c>
       <c r="G72" s="28"/>
       <c r="H72" s="29"/>
-      <c r="I72" s="51" t="s">
-        <v>175</v>
+      <c r="I72" s="55" t="s">
+        <v>177</v>
       </c>
       <c r="J72" s="32"/>
-      <c r="K72" s="51" t="s">
+      <c r="K72" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L72" s="32"/>
-      <c r="M72" s="50" t="s">
+      <c r="M72" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N72" s="32"/>
@@ -3129,24 +3189,24 @@
       <c r="A73" s="18"/>
       <c r="B73" s="30"/>
       <c r="C73" s="42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="29"/>
-      <c r="F73" s="42" t="s">
-        <v>177</v>
+      <c r="F73" s="43" t="s">
+        <v>179</v>
       </c>
       <c r="G73" s="28"/>
       <c r="H73" s="29"/>
-      <c r="I73" s="51" t="s">
-        <v>178</v>
+      <c r="I73" s="55" t="s">
+        <v>180</v>
       </c>
       <c r="J73" s="32"/>
-      <c r="K73" s="51" t="s">
+      <c r="K73" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L73" s="32"/>
-      <c r="M73" s="50" t="s">
+      <c r="M73" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="32"/>
@@ -3155,24 +3215,24 @@
       <c r="A74" s="18"/>
       <c r="B74" s="30"/>
       <c r="C74" s="42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
-      <c r="F74" s="42" t="s">
-        <v>180</v>
+      <c r="F74" s="43" t="s">
+        <v>182</v>
       </c>
       <c r="G74" s="28"/>
       <c r="H74" s="29"/>
-      <c r="I74" s="51" t="s">
-        <v>181</v>
+      <c r="I74" s="55" t="s">
+        <v>183</v>
       </c>
       <c r="J74" s="32"/>
-      <c r="K74" s="51" t="s">
+      <c r="K74" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L74" s="32"/>
-      <c r="M74" s="50" t="s">
+      <c r="M74" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N74" s="32"/>
@@ -3180,25 +3240,25 @@
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="18"/>
       <c r="B75" s="30"/>
-      <c r="C75" s="43" t="s">
-        <v>182</v>
+      <c r="C75" s="44" t="s">
+        <v>184</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="29"/>
-      <c r="F75" s="43" t="s">
-        <v>183</v>
+      <c r="F75" s="45" t="s">
+        <v>185</v>
       </c>
       <c r="G75" s="28"/>
       <c r="H75" s="29"/>
-      <c r="I75" s="51" t="s">
-        <v>184</v>
+      <c r="I75" s="55" t="s">
+        <v>186</v>
       </c>
       <c r="J75" s="32"/>
-      <c r="K75" s="51" t="s">
+      <c r="K75" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L75" s="32"/>
-      <c r="M75" s="50" t="s">
+      <c r="M75" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N75" s="32"/>
@@ -3206,25 +3266,25 @@
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="18"/>
       <c r="B76" s="30"/>
-      <c r="C76" s="43" t="s">
-        <v>185</v>
+      <c r="C76" s="44" t="s">
+        <v>187</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="29"/>
-      <c r="F76" s="43" t="s">
-        <v>186</v>
+      <c r="F76" s="45" t="s">
+        <v>188</v>
       </c>
       <c r="G76" s="28"/>
       <c r="H76" s="29"/>
-      <c r="I76" s="51" t="s">
-        <v>187</v>
+      <c r="I76" s="55" t="s">
+        <v>189</v>
       </c>
       <c r="J76" s="32"/>
-      <c r="K76" s="51" t="s">
+      <c r="K76" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L76" s="32"/>
-      <c r="M76" s="50" t="s">
+      <c r="M76" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N76" s="32"/>
@@ -3233,24 +3293,24 @@
       <c r="A77" s="18"/>
       <c r="B77" s="30"/>
       <c r="C77" s="42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="29"/>
-      <c r="F77" s="42" t="s">
-        <v>189</v>
+      <c r="F77" s="43" t="s">
+        <v>191</v>
       </c>
       <c r="G77" s="28"/>
       <c r="H77" s="29"/>
-      <c r="I77" s="51" t="s">
-        <v>190</v>
+      <c r="I77" s="55" t="s">
+        <v>192</v>
       </c>
       <c r="J77" s="32"/>
-      <c r="K77" s="51" t="s">
+      <c r="K77" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L77" s="32"/>
-      <c r="M77" s="50" t="s">
+      <c r="M77" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N77" s="32"/>
@@ -3259,24 +3319,24 @@
       <c r="A78" s="18"/>
       <c r="B78" s="37"/>
       <c r="C78" s="42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="29"/>
-      <c r="F78" s="42" t="s">
-        <v>192</v>
+      <c r="F78" s="43" t="s">
+        <v>194</v>
       </c>
       <c r="G78" s="28"/>
       <c r="H78" s="29"/>
-      <c r="I78" s="51" t="s">
-        <v>193</v>
+      <c r="I78" s="55" t="s">
+        <v>195</v>
       </c>
       <c r="J78" s="32"/>
-      <c r="K78" s="51" t="s">
+      <c r="K78" s="55" t="s">
         <v>33</v>
       </c>
       <c r="L78" s="32"/>
-      <c r="M78" s="50" t="s">
+      <c r="M78" s="54" t="s">
         <v>34</v>
       </c>
       <c r="N78" s="32"/>
@@ -10371,42 +10431,50 @@
     </row>
   </sheetData>
   <mergeCells count="310">
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M50:N50"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:N46"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="M49:N49"/>
     <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="I49:J49"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="M42:N42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="M43:N43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I44:J44"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="M40:N40"/>
@@ -10502,6 +10570,9 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="C19:E21"/>
     <mergeCell ref="F19:H21"/>
     <mergeCell ref="I19:J19"/>
@@ -10513,16 +10584,12 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:N78"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:H15"/>
@@ -10534,156 +10601,150 @@
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="I63:J63"/>
     <mergeCell ref="K63:L63"/>
     <mergeCell ref="M63:N63"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M59:N59"/>
     <mergeCell ref="I60:J60"/>
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="M60:N60"/>
     <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="M56:N56"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
     <mergeCell ref="M57:N57"/>
     <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
     <mergeCell ref="I75:J75"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="M75:N75"/>
     <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="M71:N71"/>
     <mergeCell ref="I72:J72"/>
     <mergeCell ref="K72:L72"/>
     <mergeCell ref="M72:N72"/>
     <mergeCell ref="I73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M68:N68"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="M69:N69"/>
     <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M67:N67"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="K65:L65"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
     <mergeCell ref="I66:J66"/>
     <mergeCell ref="K66:L66"/>
     <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="B40:B57"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="B58:B78"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="C77:E77"/>
     <mergeCell ref="F77:H77"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C78:E78"/>
     <mergeCell ref="F78:H78"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F75:H75"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="F37:H37"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="B40:B57"/>
+    <mergeCell ref="C61:E62"/>
+    <mergeCell ref="F61:H62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="C64:E65"/>
+    <mergeCell ref="F64:H65"/>
+    <mergeCell ref="C66:E67"/>
+    <mergeCell ref="F66:H67"/>
     <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F59:H60"/>
-    <mergeCell ref="F63:H63"/>
     <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F61:H62"/>
-    <mergeCell ref="F64:H65"/>
-    <mergeCell ref="F66:H67"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="C64:E65"/>
-    <mergeCell ref="B58:B78"/>
-    <mergeCell ref="C66:E67"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="C57:E57"/>
     <mergeCell ref="F57:H57"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="F59:H60"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="F51:H51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F52:H52"/>
+    <mergeCell ref="C46:E47"/>
+    <mergeCell ref="F46:H47"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:H53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F54:H54"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="C49:E49"/>
     <mergeCell ref="F49:H49"/>
-    <mergeCell ref="C45:E46"/>
-    <mergeCell ref="F45:H46"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:H50"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>